--- a/Documentacion/Cronograma.xlsx
+++ b/Documentacion/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Granados\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0B526AE-B42D-4EA5-82BE-6338425D35D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2668BAF5-F002-412E-ADA1-1AAEDC7FCED3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{587BE92C-4A47-4858-98B8-71882EA73C93}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t xml:space="preserve">RESPONSABLE </t>
   </si>
@@ -69,13 +69,61 @@
   </si>
   <si>
     <t>Diego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horario </t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>12 a 14</t>
+  </si>
+  <si>
+    <t>14 a 16</t>
+  </si>
+  <si>
+    <t>16 a 18</t>
+  </si>
+  <si>
+    <t>18 a 20</t>
+  </si>
+  <si>
+    <t>20 a 22</t>
+  </si>
+  <si>
+    <t>6 a 8</t>
+  </si>
+  <si>
+    <t>8 a 10</t>
+  </si>
+  <si>
+    <t>10 a 12</t>
+  </si>
+  <si>
+    <t>Arduino (comunicación puerto serial)</t>
+  </si>
+  <si>
+    <t>Arduino (Gestión de mando)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +165,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +201,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,20 +245,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -202,17 +260,11 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -223,6 +275,34 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905C298B-772E-4604-AC3B-320B96E1B549}">
-  <dimension ref="A3:T29"/>
+  <dimension ref="A2:AA29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H9" sqref="H9:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,442 +631,635 @@
     <col min="3" max="3" width="48.42578125" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
     <col min="5" max="20" width="4.85546875" customWidth="1"/>
+    <col min="23" max="27" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="V2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="V3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA3" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="13">
+      <c r="B4" s="19"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="8">
         <v>18</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="8">
         <v>19</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="8">
         <v>20</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="8">
         <v>21</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="8">
         <v>22</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="8">
         <v>23</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="8">
         <v>24</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="8">
         <v>25</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="8">
         <v>26</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="8">
         <v>27</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="8">
         <v>28</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="8">
         <v>29</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="8">
         <v>30</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4" s="8">
         <v>1</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="8">
         <v>2</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="V5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="27"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D6" s="6"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="V6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="V7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="V8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="27"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+      <c r="C9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="V9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" s="23"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="21"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="V10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="W10" s="23"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="V11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="W11" s="21"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="17"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="17"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="V13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="13"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D14" s="6"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="8"/>
+      <c r="V14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="W14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="X14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA14" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="14"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="9"/>
+      <c r="V15" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="V16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="V17" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="V18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="W18" s="26"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="V19" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19" s="26"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="21"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="V20" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="W20" s="25"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="21"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="V21" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="W21" s="24"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="29"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="7"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="V22" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="W22" s="21"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="28"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="6"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C25" s="5"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="8"/>
-      <c r="D26" s="7"/>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C26" s="5"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="8"/>
-      <c r="D27" s="7"/>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C27" s="5"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="8"/>
-      <c r="D28" s="7"/>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C28" s="5"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="8"/>
-      <c r="D29" s="7"/>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C29" s="5"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="V13:AA13"/>
+    <mergeCell ref="V2:AA2"/>
     <mergeCell ref="E3:Q3"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="D3:D4"/>

--- a/Documentacion/Cronograma.xlsx
+++ b/Documentacion/Cronograma.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Granados\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\U\II\Informatica II\Proyecto Final\Mario\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2668BAF5-F002-412E-ADA1-1AAEDC7FCED3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54D55F9-D3F9-47F3-9D59-F8A433EF5B23}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{587BE92C-4A47-4858-98B8-71882EA73C93}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t xml:space="preserve">RESPONSABLE </t>
   </si>
@@ -56,18 +56,12 @@
     <t>Construir prototipos de clases</t>
   </si>
   <si>
-    <t xml:space="preserve">Implementar método </t>
-  </si>
-  <si>
     <t>Cristian</t>
   </si>
   <si>
     <t>Implementar métodos de la clase "personaje"</t>
   </si>
   <si>
-    <t>Implementar física de la clase personaje</t>
-  </si>
-  <si>
     <t>Diego</t>
   </si>
   <si>
@@ -117,6 +111,18 @@
   </si>
   <si>
     <t>Arduino (Gestión de mando)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementacion de los metodos de la clases </t>
+  </si>
+  <si>
+    <t>Cronstrcuccion de menus graficos</t>
+  </si>
+  <si>
+    <t>Implementar física del juego</t>
+  </si>
+  <si>
+    <t>Construcion de el desarrollo del juego</t>
   </si>
 </sst>
 </file>
@@ -173,7 +179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +219,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,6 +287,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -290,19 +314,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905C298B-772E-4604-AC3B-320B96E1B549}">
-  <dimension ref="A2:AA29"/>
+  <dimension ref="A2:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:I10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,68 +647,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="V2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
+      <c r="V2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="V3" s="21" t="s">
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="V3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="21" t="s">
+      <c r="Y3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="21" t="s">
+      <c r="Z3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="21" t="s">
+      <c r="AA3" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="Z3" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA3" s="21" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="8">
         <v>18</v>
       </c>
@@ -745,27 +757,27 @@
       <c r="T4" s="8">
         <v>3</v>
       </c>
-      <c r="V4" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
+      <c r="V4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -779,27 +791,29 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
-      <c r="V5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="27"/>
+      <c r="V5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="21"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="18"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -811,30 +825,30 @@
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
-      <c r="V6" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
+      <c r="V6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="18"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>9</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="8"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -845,27 +859,27 @@
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
-      <c r="V7" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
+      <c r="V7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="18"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="6" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="8"/>
@@ -879,29 +893,29 @@
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
-      <c r="V8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="W8" s="27"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
+      <c r="V8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W8" s="21"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="18"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -913,32 +927,32 @@
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
-      <c r="V9" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="W9" s="23"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="21"/>
+      <c r="V9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W9" s="17"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="15"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="6" t="s">
-        <v>28</v>
+      <c r="B10" s="28"/>
+      <c r="C10" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="13"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
@@ -947,19 +961,21 @@
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
-      <c r="V10" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="W10" s="23"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
+      <c r="V10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="D11" s="12"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -968,32 +984,34 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
-      <c r="V11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="W11" s="21"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
+      <c r="V11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="W11" s="15"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -1002,16 +1020,18 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -1026,23 +1046,23 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
       <c r="T13" s="8"/>
-      <c r="V13" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
+      <c r="V13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="17"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="8"/>
@@ -1058,89 +1078,72 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="8"/>
-      <c r="V14" s="21" t="s">
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="9"/>
+      <c r="V14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="W14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="X14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="W14" s="21" t="s">
+      <c r="Y14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="X14" s="21" t="s">
+      <c r="Z14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Y14" s="21" t="s">
+      <c r="AA14" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="Z14" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA14" s="21" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="9"/>
-      <c r="V15" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="1"/>
+      <c r="V15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="1"/>
-      <c r="V16" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
+      <c r="V16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
-      <c r="V17" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
+      <c r="V17" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -1148,86 +1151,86 @@
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
-      <c r="V18" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="W18" s="26"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
+      <c r="V18" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="W18" s="20"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="17"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="5"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
-      <c r="V19" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="W19" s="26"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="21"/>
+      <c r="V19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W19" s="20"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="15"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="17"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
-      <c r="V20" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="W20" s="25"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="21"/>
+      <c r="V20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W20" s="19"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="15"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="17"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="5"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
-      <c r="V21" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="W21" s="24"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="29"/>
+      <c r="V21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="W21" s="18"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="23"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="1"/>
-      <c r="V22" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="W22" s="21"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="28"/>
+      <c r="V22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="W22" s="15"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="22"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="4"/>
       <c r="E24" s="1"/>
     </row>
@@ -1251,23 +1254,18 @@
       <c r="D28" s="4"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C29" s="5"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="V13:AA13"/>
     <mergeCell ref="V2:AA2"/>
     <mergeCell ref="E3:Q3"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentacion/Cronograma.xlsx
+++ b/Documentacion/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\U\II\Informatica II\Proyecto Final\Mario\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54D55F9-D3F9-47F3-9D59-F8A433EF5B23}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0749FA0-5564-467F-963C-4BFB9B4A3CD2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{587BE92C-4A47-4858-98B8-71882EA73C93}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t xml:space="preserve">RESPONSABLE </t>
   </si>
@@ -113,16 +113,16 @@
     <t>Arduino (Gestión de mando)</t>
   </si>
   <si>
-    <t xml:space="preserve">Implementacion de los metodos de la clases </t>
-  </si>
-  <si>
-    <t>Cronstrcuccion de menus graficos</t>
-  </si>
-  <si>
     <t>Implementar física del juego</t>
   </si>
   <si>
-    <t>Construcion de el desarrollo del juego</t>
+    <t xml:space="preserve">Implementación de los métodos de la clases </t>
+  </si>
+  <si>
+    <t>Construcción de el desarrollo del juego</t>
+  </si>
+  <si>
+    <t>Construcción de menus gráficos</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
   <dimension ref="A2:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,7 +838,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="28"/>
       <c r="C7" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>10</v>
@@ -940,7 +940,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="28"/>
       <c r="C10" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>4</v>
@@ -974,9 +974,11 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -1006,9 +1008,11 @@
       <c r="A12" s="1"/>
       <c r="B12" s="27"/>
       <c r="C12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -1032,7 +1036,9 @@
       <c r="C13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
